--- a/basic-forms/forms/app/select_contact.xlsx
+++ b/basic-forms/forms/app/select_contact.xlsx
@@ -11,7 +11,7 @@
     <sheet name="survey" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="settings" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,8 +20,194 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Determines what kinds of values are allowed and how the field is displayed. For certain types, further customization is possible using the appearance and parameters columns.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF0000FF"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">https://docs.getodk.org/form-question-types/
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Variable name. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. For example: date_of_birth.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The user-visible question text for the field. For example: "When was ${first_name} born?" This text can optionally reference other fields or be styled using subsets of Markdown and HTML.
+Can be translated.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">An expression that determines whether a question will be displayed to a user or not. Lets you define branching or skip logic. 
+https://docs.getodk.org/form-logic/#conditionally-showing-questions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">One or more modifiers that determine how the question will be displayed.
+These can be specific to the field type.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">An expression that will be evaluated to determine the value of the field.
+⚠️ Expressions may be re-evaluated at any time. 
+To limit when expressions are evaluated, for example to specify dynamic defaults use the once() function. 
+https://docs.getodk.org/form-logic/#when-expressions-are-evaluated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Can include a human-friendly note to describe the row. This will be ignored by all ODK tools.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The title that will be displayed to anyone who uses this form.
+https://docs.getodk.org/xlsform/#the-settings-sheet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The unique ID that identifies this form to tools that use it. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. 
+For example: bench_inventory_2021
+You can change the form_title as much as you would like but if you change the form_id, it will be considered a different form definition.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
+By default, this template uses a formula to create a date-based version that will update automatically.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Custom namespaces supported in the form.  `cht` must be included here to use the custom `instance::cht` columns on the survey sheet.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -29,15 +215,15 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">label::en</t>
+    <t xml:space="preserve">label::English (en)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relevant</t>
   </si>
   <si>
     <t xml:space="preserve">appearance</t>
   </si>
   <si>
-    <t xml:space="preserve">relevant</t>
-  </si>
-  <si>
     <t xml:space="preserve">calculation</t>
   </si>
   <si>
@@ -47,37 +233,10 @@
     <t xml:space="preserve">intro</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">As described [in the docs](https://docs.communityhealthtoolkit.org/apps/guides/forms/form-inputs/#contact-selector), the contact selector loads data from a contact doc into a form group.  
+    <t xml:space="preserve">As described [in the docs](https://docs.communityhealthtoolkit.org/apps/guides/forms/form-inputs/#contact-selector), the contact selector loads data from a contact doc into a form group.  
 This can be triggered automatically to load contact data in the background (e.g. this form loads the contact document for the current user). 
 Alternatively, the contact selector can be displayed to the user as a search box so they can dynamically choose which contact to load. 
-_(Note that because of [this issue](</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/medic/cht-core/issues/8225</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">) we have to load the user’s contact outside of the &lt;code&gt;inputs&lt;/code&gt; group.)_</t>
-    </r>
+_(Note that because of [this issue](https://github.com/medic/cht-core/issues/8225) we have to load the user’s contact outside of the &lt;code&gt;inputs&lt;/code&gt; group.)_</t>
   </si>
   <si>
     <t xml:space="preserve">begin_group</t>
@@ -185,7 +344,7 @@
     <t xml:space="preserve">${selected_contact_name} != “”</t>
   </si>
   <si>
-    <t xml:space="preserve">title</t>
+    <t xml:space="preserve">form_title</t>
   </si>
   <si>
     <t xml:space="preserve">form_id</t>
@@ -197,10 +356,7 @@
     <t xml:space="preserve">style</t>
   </si>
   <si>
-    <t xml:space="preserve">path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_language</t>
+    <t xml:space="preserve">namespaces</t>
   </si>
   <si>
     <t xml:space="preserve">Select Contact</t>
@@ -212,26 +368,23 @@
     <t xml:space="preserve">pages</t>
   </si>
   <si>
-    <t xml:space="preserve">data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en</t>
+    <t xml:space="preserve">cht=https://communityhealthtoolkit.org</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -250,48 +403,53 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Cambria"/>
-      <family val="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -299,8 +457,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF3465A4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF3465A4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF5B277D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF5B277D"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -324,49 +545,205 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="column_head" xfId="20"/>
+    <cellStyle name="column_head_i18n" xfId="21"/>
+    <cellStyle name="group_begin" xfId="22"/>
+    <cellStyle name="group_end" xfId="23"/>
+    <cellStyle name="repeat_begin" xfId="24"/>
+    <cellStyle name="repeat_end" xfId="25"/>
   </cellStyles>
+  <dxfs count="5">
+    <dxf>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="hair">
+          <color rgb="FF999999"/>
+        </left>
+        <right style="hair">
+          <color rgb="FF999999"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF3465A4"/>
+        </top>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="hair">
+          <color rgb="FF999999"/>
+        </left>
+        <right style="hair">
+          <color rgb="FF999999"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF3465A4"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="hair">
+          <color rgb="FF999999"/>
+        </left>
+        <right style="hair">
+          <color rgb="FF999999"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF5B277D"/>
+        </top>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="hair">
+          <color rgb="FF999999"/>
+        </left>
+        <right style="hair">
+          <color rgb="FF999999"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF5B277D"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF3465A4"/>
+      <rgbColor rgb="FF999999"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF5B277D"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,67 +858,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="45.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1005" min="7" style="1" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1010" min="1006" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16370" min="1011" style="1" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16371" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.49"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="29" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -551,11 +924,11 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -565,9 +938,8 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -577,9 +949,8 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -587,12 +958,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -602,11 +973,11 @@
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -616,11 +987,11 @@
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -630,7 +1001,7 @@
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -664,7 +1035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -675,7 +1046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -686,7 +1057,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -697,7 +1068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -705,7 +1076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -715,11 +1086,11 @@
       <c r="C22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -730,7 +1101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -740,11 +1111,11 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -755,7 +1126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -763,7 +1134,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -774,7 +1145,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -784,11 +1155,11 @@
       <c r="C28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -797,16 +1168,81 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A28:G10000 A27:B27 D2:G27 A2:C26">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$A2="begin_group"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$A2="end_group"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$A2="begin_repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$A2="end_repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK($A2), NOT(ISBLANK(A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B10000">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C10000 C2:C26">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F10000">
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A2="calculate", ISBLANK(F2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$A27="begin_group"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$A27="end_group"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$A27="begin_repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$A27="end_repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK($A27), NOT(ISBLANK(C27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK(C27),NOT(OR(ISBLANK($A27),$A27="calculate")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" error="If configuring a select, ensure your list name matches a list from the choices sheet." errorStyle="information" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A1" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="If configuring a select, ensure your list name matches a list from the choices sheet." errorStyle="information" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1015" type="list">
+      <formula1>"begin_group,end_group,note,calculate,text,integer,decimal,select_one list_name,select_multiple list_name,date,time,datetime,begin_repeat,end_repeat,geopoint,geotrace,geoshape,start-geopoint,range,image,audio,video,file,rank,acknowledge,start,end,today"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://github.com/medic/cht-core/issues/8225"/>
+    <hyperlink ref="C3" r:id="rId2" display="As described [in the docs](https://docs.communityhealthtoolkit.org/apps/guides/forms/form-inputs/#contact-selector), the contact selector loads data from a contact doc into a form group.  &#10;&#10;This can be triggered automatically to load contact data in the background (e.g. this form loads the contact document for the current user). &#10;&#10;Alternatively, the contact selector can be displayed to the user as a search box so they can dynamically choose which contact to load. &#10;&#10;_(Note that because of [this issue](https://github.com/medic/cht-core/issues/8225) we have to load the user’s contact outside of the &lt;code&gt;inputs&lt;/code&gt; group.)_"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -815,70 +1251,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="7" style="1" width="17.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="21" style="1" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="17.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="str">
+        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
+        <v>20250213154848</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="7" t="n">
-        <f aca="true">TODAY()</f>
-        <v>45526</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/basic-forms/forms/app/select_contact.xlsx
+++ b/basic-forms/forms/app/select_contact.xlsx
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -257,12 +257,15 @@
     <t xml:space="preserve">User Settings Doc</t>
   </si>
   <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">hidden</t>
   </si>
   <si>
-    <t xml:space="preserve">contact_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">end_group</t>
   </si>
   <si>
@@ -279,9 +282,6 @@
   </si>
   <si>
     <t xml:space="preserve">User’s Contact Doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
   </si>
   <si>
     <t xml:space="preserve">_id</t>
@@ -380,7 +380,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -420,13 +420,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -865,7 +858,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C35" activeCellId="0" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -949,10 +942,13 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -960,7 +956,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -968,13 +967,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -982,18 +981,18 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1018,6 +1017,9 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -1029,10 +1031,16 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1070,10 +1078,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1087,7 +1095,7 @@
         <v>36</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1103,7 +1111,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
@@ -1125,10 +1133,13 @@
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>37</v>
@@ -1161,7 +1172,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
@@ -1291,7 +1302,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250213154848</v>
+        <v>20250213162054</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>51</v>

--- a/basic-forms/forms/app/select_contact.xlsx
+++ b/basic-forms/forms/app/select_contact.xlsx
@@ -11,7 +11,7 @@
     <sheet name="survey" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="settings" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,8 +20,194 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Determines what kinds of values are allowed and how the field is displayed. For certain types, further customization is possible using the appearance and parameters columns.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF0000FF"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">https://docs.getodk.org/form-question-types/
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Variable name. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. For example: date_of_birth.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The user-visible question text for the field. For example: "When was ${first_name} born?" This text can optionally reference other fields or be styled using subsets of Markdown and HTML.
+Can be translated.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">An expression that determines whether a question will be displayed to a user or not. Lets you define branching or skip logic. 
+https://docs.getodk.org/form-logic/#conditionally-showing-questions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">One or more modifiers that determine how the question will be displayed.
+These can be specific to the field type.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">An expression that will be evaluated to determine the value of the field.
+⚠️ Expressions may be re-evaluated at any time. 
+To limit when expressions are evaluated, for example to specify dynamic defaults use the once() function. 
+https://docs.getodk.org/form-logic/#when-expressions-are-evaluated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Can include a human-friendly note to describe the row. This will be ignored by all ODK tools.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The title that will be displayed to anyone who uses this form.
+https://docs.getodk.org/xlsform/#the-settings-sheet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The unique ID that identifies this form to tools that use it. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. 
+For example: bench_inventory_2021
+You can change the form_title as much as you would like but if you change the form_id, it will be considered a different form definition.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
+By default, this template uses a formula to create a date-based version that will update automatically.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Custom namespaces supported in the form.  `cht` must be included here to use the custom `instance::cht` columns on the survey sheet.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -29,15 +215,15 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">label::en</t>
+    <t xml:space="preserve">label::English (en)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relevant</t>
   </si>
   <si>
     <t xml:space="preserve">appearance</t>
   </si>
   <si>
-    <t xml:space="preserve">relevant</t>
-  </si>
-  <si>
     <t xml:space="preserve">calculation</t>
   </si>
   <si>
@@ -47,37 +233,10 @@
     <t xml:space="preserve">intro</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">As described [in the docs](https://docs.communityhealthtoolkit.org/apps/guides/forms/form-inputs/#contact-selector), the contact selector loads data from a contact doc into a form group.  
+    <t xml:space="preserve">As described [in the docs](https://docs.communityhealthtoolkit.org/apps/guides/forms/form-inputs/#contact-selector), the contact selector loads data from a contact doc into a form group.  
 This can be triggered automatically to load contact data in the background (e.g. this form loads the contact document for the current user). 
 Alternatively, the contact selector can be displayed to the user as a search box so they can dynamically choose which contact to load. 
-_(Note that because of [this issue](</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/medic/cht-core/issues/8225</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">) we have to load the user’s contact outside of the &lt;code&gt;inputs&lt;/code&gt; group.)_</t>
-    </r>
+_(Note that because of [this issue](https://github.com/medic/cht-core/issues/8225) we have to load the user’s contact outside of the &lt;code&gt;inputs&lt;/code&gt; group.)_</t>
   </si>
   <si>
     <t xml:space="preserve">begin_group</t>
@@ -98,12 +257,15 @@
     <t xml:space="preserve">User Settings Doc</t>
   </si>
   <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">hidden</t>
   </si>
   <si>
-    <t xml:space="preserve">contact_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">end_group</t>
   </si>
   <si>
@@ -122,9 +284,6 @@
     <t xml:space="preserve">User’s Contact Doc</t>
   </si>
   <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
     <t xml:space="preserve">_id</t>
   </si>
   <si>
@@ -185,7 +344,7 @@
     <t xml:space="preserve">${selected_contact_name} != “”</t>
   </si>
   <si>
-    <t xml:space="preserve">title</t>
+    <t xml:space="preserve">form_title</t>
   </si>
   <si>
     <t xml:space="preserve">form_id</t>
@@ -197,10 +356,7 @@
     <t xml:space="preserve">style</t>
   </si>
   <si>
-    <t xml:space="preserve">path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_language</t>
+    <t xml:space="preserve">namespaces</t>
   </si>
   <si>
     <t xml:space="preserve">Select Contact</t>
@@ -212,26 +368,23 @@
     <t xml:space="preserve">pages</t>
   </si>
   <si>
-    <t xml:space="preserve">data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en</t>
+    <t xml:space="preserve">cht=https://communityhealthtoolkit.org</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -250,48 +403,46 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -299,8 +450,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF3465A4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF3465A4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF5B277D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF5B277D"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -324,49 +538,205 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="column_head" xfId="20"/>
+    <cellStyle name="column_head_i18n" xfId="21"/>
+    <cellStyle name="group_begin" xfId="22"/>
+    <cellStyle name="group_end" xfId="23"/>
+    <cellStyle name="repeat_begin" xfId="24"/>
+    <cellStyle name="repeat_end" xfId="25"/>
   </cellStyles>
+  <dxfs count="5">
+    <dxf>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="hair">
+          <color rgb="FF999999"/>
+        </left>
+        <right style="hair">
+          <color rgb="FF999999"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF3465A4"/>
+        </top>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="hair">
+          <color rgb="FF999999"/>
+        </left>
+        <right style="hair">
+          <color rgb="FF999999"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF3465A4"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="hair">
+          <color rgb="FF999999"/>
+        </left>
+        <right style="hair">
+          <color rgb="FF999999"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF5B277D"/>
+        </top>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="hair">
+          <color rgb="FF999999"/>
+        </left>
+        <right style="hair">
+          <color rgb="FF999999"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF5B277D"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF3465A4"/>
+      <rgbColor rgb="FF999999"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF5B277D"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,67 +851,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="45.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1005" min="7" style="1" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1010" min="1006" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16370" min="1011" style="1" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16371" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.49"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="29" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -551,11 +917,11 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -565,9 +931,8 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -577,52 +942,57 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -630,7 +1000,7 @@
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -647,6 +1017,9 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -658,13 +1031,19 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -675,7 +1054,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -686,7 +1065,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -697,15 +1076,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -715,11 +1094,11 @@
       <c r="C22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -730,9 +1109,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
@@ -740,11 +1119,11 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -754,16 +1133,19 @@
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -774,7 +1156,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -784,29 +1166,94 @@
       <c r="C28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A28:G10000 A27:B27 D2:G27 A2:C26">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$A2="begin_group"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$A2="end_group"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$A2="begin_repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$A2="end_repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK($A2), NOT(ISBLANK(A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B10000">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C10000 C2:C26">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F10000">
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND($A2="calculate", ISBLANK(F2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$A27="begin_group"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$A27="end_group"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$A27="begin_repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$A27="end_repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK($A27), NOT(ISBLANK(C27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(ISBLANK(C27),NOT(OR(ISBLANK($A27),$A27="calculate")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" error="If configuring a select, ensure your list name matches a list from the choices sheet." errorStyle="information" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A1" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="If configuring a select, ensure your list name matches a list from the choices sheet." errorStyle="information" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1015" type="list">
+      <formula1>"begin_group,end_group,note,calculate,text,integer,decimal,select_one list_name,select_multiple list_name,date,time,datetime,begin_repeat,end_repeat,geopoint,geotrace,geoshape,start-geopoint,range,image,audio,video,file,rank,acknowledge,start,end,today"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://github.com/medic/cht-core/issues/8225"/>
+    <hyperlink ref="C3" r:id="rId2" display="As described [in the docs](https://docs.communityhealthtoolkit.org/apps/guides/forms/form-inputs/#contact-selector), the contact selector loads data from a contact doc into a form group.  &#10;&#10;This can be triggered automatically to load contact data in the background (e.g. this form loads the contact document for the current user). &#10;&#10;Alternatively, the contact selector can be displayed to the user as a search box so they can dynamically choose which contact to load. &#10;&#10;_(Note that because of [this issue](https://github.com/medic/cht-core/issues/8225) we have to load the user’s contact outside of the &lt;code&gt;inputs&lt;/code&gt; group.)_"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -815,70 +1262,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="7" style="1" width="17.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="21" style="1" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="17.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="str">
+        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
+        <v>20250213162054</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="7" t="n">
-        <f aca="true">TODAY()</f>
-        <v>45526</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/basic-forms/forms/app/select_contact.xlsx
+++ b/basic-forms/forms/app/select_contact.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -257,31 +257,31 @@
     <t xml:space="preserve">User Settings Doc</t>
   </si>
   <si>
+    <t xml:space="preserve">hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data automatically loaded from the user’s contact doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field-list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User’s Contact Doc</t>
+  </si>
+  <si>
     <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data automatically loaded from the user’s contact doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User’s Contact Doc</t>
   </si>
   <si>
     <t xml:space="preserve">_id</t>
@@ -858,7 +858,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -939,16 +939,10 @@
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -956,7 +950,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -967,13 +961,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -981,18 +975,18 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1009,7 +1003,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -1018,12 +1012,12 @@
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
@@ -1032,15 +1026,15 @@
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1078,10 +1072,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1095,7 +1089,7 @@
         <v>36</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1111,7 +1105,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
@@ -1125,7 +1119,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
@@ -1134,12 +1128,12 @@
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>37</v>
@@ -1172,14 +1166,14 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A28:G10000 A27:B27 D2:G27 A2:C26">
+  <conditionalFormatting sqref="A28:G10000 A27:B27 D2:G27 A2:C26 C27">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1201,36 +1195,14 @@
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C10000 C2:C26">
+  <conditionalFormatting sqref="C28:C10000 C2:C26 C27">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
+      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate",$A2="hidden")),ISBLANK($F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F10000">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A2="calculate", ISBLANK(F2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A27="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A27="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A27="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A27="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A27), NOT(ISBLANK(C27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C27),NOT(OR(ISBLANK($A27),$A27="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -1302,7 +1274,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250213162054</v>
+        <v>20251119133851</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>51</v>

--- a/basic-forms/forms/app/select_contact.xlsx
+++ b/basic-forms/forms/app/select_contact.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -159,9 +159,8 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique ID that identifies this form to tools that use it. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. 
-For example: bench_inventory_2021
-You can change the form_title as much as you would like but if you change the form_id, it will be considered a different form definition.</t>
+          <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
+By default, this template uses a formula to create a date-based version that will update automatically.</t>
         </r>
       </text>
     </comment>
@@ -173,24 +172,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
-By default, this template uses a formula to create a date-based version that will update automatically.</t>
+          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
         </r>
       </text>
     </comment>
     <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -347,9 +333,6 @@
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">version</t>
   </si>
   <si>
@@ -360,9 +343,6 @@
   </si>
   <si>
     <t xml:space="preserve">Select Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_contact</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -858,7 +838,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1173,7 +1153,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A28:G10000 A27:B27 D2:G27 A2:C26 C27">
+  <conditionalFormatting sqref="A2:G10000">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1195,7 +1175,7 @@
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C10000 C2:C26 C27">
+  <conditionalFormatting sqref="C2:C10000">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate",$A2="hidden")),ISBLANK($F2))</formula>
     </cfRule>
@@ -1234,18 +1214,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1261,26 +1240,20 @@
       <c r="D1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="7" t="str">
+        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
+        <v>20260114092121</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20251119133851</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/basic-forms/forms/app/select_contact.xlsx
+++ b/basic-forms/forms/app/select_contact.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -159,9 +159,8 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique ID that identifies this form to tools that use it. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. 
-For example: bench_inventory_2021
-You can change the form_title as much as you would like but if you change the form_id, it will be considered a different form definition.</t>
+          <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
+By default, this template uses a formula to create a date-based version that will update automatically.</t>
         </r>
       </text>
     </comment>
@@ -173,24 +172,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
-By default, this template uses a formula to create a date-based version that will update automatically.</t>
+          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
         </r>
       </text>
     </comment>
     <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -257,33 +243,33 @@
     <t xml:space="preserve">User Settings Doc</t>
   </si>
   <si>
+    <t xml:space="preserve">hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data automatically loaded from the user’s contact doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field-list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User’s Contact Doc</t>
+  </si>
+  <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">contact_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data automatically loaded from the user’s contact doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User’s Contact Doc</t>
-  </si>
-  <si>
     <t xml:space="preserve">_id</t>
   </si>
   <si>
@@ -347,9 +333,6 @@
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">version</t>
   </si>
   <si>
@@ -360,9 +343,6 @@
   </si>
   <si>
     <t xml:space="preserve">Select Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_contact</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -858,7 +838,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -939,16 +919,10 @@
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -956,7 +930,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -967,13 +941,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -981,18 +955,18 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1009,7 +983,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -1018,12 +992,12 @@
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
@@ -1032,15 +1006,15 @@
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1078,10 +1052,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1095,7 +1069,7 @@
         <v>36</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1111,7 +1085,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
@@ -1125,7 +1099,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
@@ -1134,12 +1108,12 @@
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>37</v>
@@ -1172,14 +1146,14 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A28:G10000 A27:B27 D2:G27 A2:C26">
+  <conditionalFormatting sqref="A2:G10000">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1201,36 +1175,14 @@
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C10000 C2:C26">
+  <conditionalFormatting sqref="C2:C10000">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
+      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate",$A2="hidden")),ISBLANK($F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F10000">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A2="calculate", ISBLANK(F2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A27="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A27="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A27="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A27="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A27), NOT(ISBLANK(C27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C27),NOT(OR(ISBLANK($A27),$A27="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -1262,18 +1214,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,26 +1240,20 @@
       <c r="D1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="7" t="str">
+        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
+        <v>20260114092121</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250213162054</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
